--- a/natmiOut/YoungD4/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>38.5362008798616</v>
+        <v>0.08871633333333334</v>
       </c>
       <c r="H2">
-        <v>38.5362008798616</v>
+        <v>0.266149</v>
       </c>
       <c r="I2">
-        <v>0.6628292376785825</v>
+        <v>0.0007521739725275529</v>
       </c>
       <c r="J2">
-        <v>0.6628292376785825</v>
+        <v>0.0007521739725275529</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.820189278529231</v>
+        <v>9.115710333333334</v>
       </c>
       <c r="N2">
-        <v>8.820189278529231</v>
+        <v>27.347131</v>
       </c>
       <c r="O2">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="P2">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="Q2">
-        <v>339.896585835804</v>
+        <v>0.8087123965021112</v>
       </c>
       <c r="R2">
-        <v>339.896585835804</v>
+        <v>7.278411568519001</v>
       </c>
       <c r="S2">
-        <v>0.07198593883340511</v>
+        <v>8.321734203105032E-05</v>
       </c>
       <c r="T2">
-        <v>0.07198593883340511</v>
+        <v>8.321734203105031E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -599,49 +599,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>38.5362008798616</v>
+        <v>0.08871633333333334</v>
       </c>
       <c r="H3">
-        <v>38.5362008798616</v>
+        <v>0.266149</v>
       </c>
       <c r="I3">
-        <v>0.6628292376785825</v>
+        <v>0.0007521739725275529</v>
       </c>
       <c r="J3">
-        <v>0.6628292376785825</v>
+        <v>0.0007521739725275529</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.957474287986891</v>
+        <v>9.004096000000001</v>
       </c>
       <c r="N3">
-        <v>8.957474287986891</v>
+        <v>27.012288</v>
       </c>
       <c r="O3">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="P3">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="Q3">
-        <v>345.1870285380581</v>
+        <v>0.7988103821013335</v>
       </c>
       <c r="R3">
-        <v>345.1870285380581</v>
+        <v>7.189293438912001</v>
       </c>
       <c r="S3">
-        <v>0.0731063898783299</v>
+        <v>8.219841450780471E-05</v>
       </c>
       <c r="T3">
-        <v>0.0731063898783299</v>
+        <v>8.219841450780471E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>38.5362008798616</v>
+        <v>0.08871633333333334</v>
       </c>
       <c r="H4">
-        <v>38.5362008798616</v>
+        <v>0.266149</v>
       </c>
       <c r="I4">
-        <v>0.6628292376785825</v>
+        <v>0.0007521739725275529</v>
       </c>
       <c r="J4">
-        <v>0.6628292376785825</v>
+        <v>0.0007521739725275529</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.5721116910725</v>
+        <v>31.76332533333333</v>
       </c>
       <c r="N4">
-        <v>31.5721116910725</v>
+        <v>95.289976</v>
       </c>
       <c r="O4">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="P4">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="Q4">
-        <v>1216.669238328597</v>
+        <v>2.817925758047111</v>
       </c>
       <c r="R4">
-        <v>1216.669238328597</v>
+        <v>25.361331822424</v>
       </c>
       <c r="S4">
-        <v>0.2576756608350201</v>
+        <v>0.0002899674750131037</v>
       </c>
       <c r="T4">
-        <v>0.2576756608350201</v>
+        <v>0.0002899674750131037</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>38.5362008798616</v>
+        <v>0.08871633333333334</v>
       </c>
       <c r="H5">
-        <v>38.5362008798616</v>
+        <v>0.266149</v>
       </c>
       <c r="I5">
-        <v>0.6628292376785825</v>
+        <v>0.0007521739725275529</v>
       </c>
       <c r="J5">
-        <v>0.6628292376785825</v>
+        <v>0.0007521739725275529</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.73201046725</v>
+        <v>30.12843966666667</v>
       </c>
       <c r="N5">
-        <v>29.73201046725</v>
+        <v>90.385319</v>
       </c>
       <c r="O5">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976674</v>
       </c>
       <c r="P5">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976673</v>
       </c>
       <c r="Q5">
-        <v>1145.758727928094</v>
+        <v>2.672884696281222</v>
       </c>
       <c r="R5">
-        <v>1145.758727928094</v>
+        <v>24.055962266531</v>
       </c>
       <c r="S5">
-        <v>0.2426576821995947</v>
+        <v>0.0002750425997450551</v>
       </c>
       <c r="T5">
-        <v>0.2426576821995947</v>
+        <v>0.0002750425997450551</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,49 +785,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>38.5362008798616</v>
+        <v>0.08871633333333334</v>
       </c>
       <c r="H6">
-        <v>38.5362008798616</v>
+        <v>0.266149</v>
       </c>
       <c r="I6">
-        <v>0.6628292376785825</v>
+        <v>0.0007521739725275529</v>
       </c>
       <c r="J6">
-        <v>0.6628292376785825</v>
+        <v>0.0007521739725275529</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.13239902307729</v>
+        <v>2.382313</v>
       </c>
       <c r="N6">
-        <v>2.13239902307729</v>
+        <v>7.146939</v>
       </c>
       <c r="O6">
-        <v>0.02625648499330667</v>
+        <v>0.0289137114881257</v>
       </c>
       <c r="P6">
-        <v>0.02625648499330667</v>
+        <v>0.02891371148812569</v>
       </c>
       <c r="Q6">
-        <v>82.17455710932708</v>
+        <v>0.2113500742123333</v>
       </c>
       <c r="R6">
-        <v>82.17455710932708</v>
+        <v>1.902150667911</v>
       </c>
       <c r="S6">
-        <v>0.0174035659322326</v>
+        <v>2.174814123053905E-05</v>
       </c>
       <c r="T6">
-        <v>0.0174035659322326</v>
+        <v>2.174814123053905E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.6027566212082</v>
+        <v>41.455644</v>
       </c>
       <c r="H7">
-        <v>19.6027566212082</v>
+        <v>124.366932</v>
       </c>
       <c r="I7">
-        <v>0.3371707623214175</v>
+        <v>0.3514781918906479</v>
       </c>
       <c r="J7">
-        <v>0.3371707623214175</v>
+        <v>0.3514781918906478</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.820189278529231</v>
+        <v>9.115710333333334</v>
       </c>
       <c r="N7">
-        <v>8.820189278529231</v>
+        <v>27.347131</v>
       </c>
       <c r="O7">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="P7">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="Q7">
-        <v>172.9000237799985</v>
+        <v>377.8976423857881</v>
       </c>
       <c r="R7">
-        <v>172.9000237799985</v>
+        <v>3401.078781472092</v>
       </c>
       <c r="S7">
-        <v>0.03661810990397475</v>
+        <v>0.03888605825156727</v>
       </c>
       <c r="T7">
-        <v>0.03661810990397475</v>
+        <v>0.03888605825156725</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.6027566212082</v>
+        <v>41.455644</v>
       </c>
       <c r="H8">
-        <v>19.6027566212082</v>
+        <v>124.366932</v>
       </c>
       <c r="I8">
-        <v>0.3371707623214175</v>
+        <v>0.3514781918906479</v>
       </c>
       <c r="J8">
-        <v>0.3371707623214175</v>
+        <v>0.3514781918906478</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.957474287986891</v>
+        <v>9.004096000000001</v>
       </c>
       <c r="N8">
-        <v>8.957474287986891</v>
+        <v>27.012288</v>
       </c>
       <c r="O8">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="P8">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="Q8">
-        <v>175.5911884081372</v>
+        <v>373.270598317824</v>
       </c>
       <c r="R8">
-        <v>175.5911884081372</v>
+        <v>3359.435384860416</v>
       </c>
       <c r="S8">
-        <v>0.03718806565047172</v>
+        <v>0.03840993063133794</v>
       </c>
       <c r="T8">
-        <v>0.03718806565047172</v>
+        <v>0.03840993063133794</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.6027566212082</v>
+        <v>41.455644</v>
       </c>
       <c r="H9">
-        <v>19.6027566212082</v>
+        <v>124.366932</v>
       </c>
       <c r="I9">
-        <v>0.3371707623214175</v>
+        <v>0.3514781918906479</v>
       </c>
       <c r="J9">
-        <v>0.3371707623214175</v>
+        <v>0.3514781918906478</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.5721116910725</v>
+        <v>31.76332533333333</v>
       </c>
       <c r="N9">
-        <v>31.5721116910725</v>
+        <v>95.289976</v>
       </c>
       <c r="O9">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="P9">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="Q9">
-        <v>618.9004214976962</v>
+        <v>1316.769107274848</v>
       </c>
       <c r="R9">
-        <v>618.9004214976962</v>
+        <v>11850.92196547363</v>
       </c>
       <c r="S9">
-        <v>0.1310755380974138</v>
+        <v>0.1354969030399001</v>
       </c>
       <c r="T9">
-        <v>0.1310755380974138</v>
+        <v>0.1354969030399001</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.6027566212082</v>
+        <v>41.455644</v>
       </c>
       <c r="H10">
-        <v>19.6027566212082</v>
+        <v>124.366932</v>
       </c>
       <c r="I10">
-        <v>0.3371707623214175</v>
+        <v>0.3514781918906479</v>
       </c>
       <c r="J10">
-        <v>0.3371707623214175</v>
+        <v>0.3514781918906478</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>29.73201046725</v>
+        <v>30.12843966666667</v>
       </c>
       <c r="N10">
-        <v>29.73201046725</v>
+        <v>90.385319</v>
       </c>
       <c r="O10">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976674</v>
       </c>
       <c r="P10">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976673</v>
       </c>
       <c r="Q10">
-        <v>582.8293650487165</v>
+        <v>1248.993869096812</v>
       </c>
       <c r="R10">
-        <v>582.8293650487165</v>
+        <v>11240.94482187131</v>
       </c>
       <c r="S10">
-        <v>0.1234361296084832</v>
+        <v>0.1285227609331483</v>
       </c>
       <c r="T10">
-        <v>0.1234361296084832</v>
+        <v>0.1285227609331483</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.6027566212082</v>
+        <v>41.455644</v>
       </c>
       <c r="H11">
-        <v>19.6027566212082</v>
+        <v>124.366932</v>
       </c>
       <c r="I11">
-        <v>0.3371707623214175</v>
+        <v>0.3514781918906479</v>
       </c>
       <c r="J11">
-        <v>0.3371707623214175</v>
+        <v>0.3514781918906478</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.13239902307729</v>
+        <v>2.382313</v>
       </c>
       <c r="N11">
-        <v>2.13239902307729</v>
+        <v>7.146939</v>
       </c>
       <c r="O11">
-        <v>0.02625648499330667</v>
+        <v>0.0289137114881257</v>
       </c>
       <c r="P11">
-        <v>0.02625648499330667</v>
+        <v>0.02891371148812569</v>
       </c>
       <c r="Q11">
-        <v>41.80089906868624</v>
+        <v>98.76031962457199</v>
       </c>
       <c r="R11">
-        <v>41.80089906868624</v>
+        <v>888.8428766211479</v>
       </c>
       <c r="S11">
-        <v>0.00885291906107407</v>
+        <v>0.01016253903469427</v>
       </c>
       <c r="T11">
-        <v>0.00885291906107407</v>
+        <v>0.01016253903469427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>76.40220066666666</v>
+      </c>
+      <c r="H12">
+        <v>229.206602</v>
+      </c>
+      <c r="I12">
+        <v>0.6477696341368246</v>
+      </c>
+      <c r="J12">
+        <v>0.6477696341368245</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>9.115710333333334</v>
+      </c>
+      <c r="N12">
+        <v>27.347131</v>
+      </c>
+      <c r="O12">
+        <v>0.1106357638930427</v>
+      </c>
+      <c r="P12">
+        <v>0.1106357638930427</v>
+      </c>
+      <c r="Q12">
+        <v>696.4603301065403</v>
+      </c>
+      <c r="R12">
+        <v>6268.142970958862</v>
+      </c>
+      <c r="S12">
+        <v>0.07166648829944437</v>
+      </c>
+      <c r="T12">
+        <v>0.07166648829944434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>76.40220066666666</v>
+      </c>
+      <c r="H13">
+        <v>229.206602</v>
+      </c>
+      <c r="I13">
+        <v>0.6477696341368246</v>
+      </c>
+      <c r="J13">
+        <v>0.6477696341368245</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.004096000000001</v>
+      </c>
+      <c r="N13">
+        <v>27.012288</v>
+      </c>
+      <c r="O13">
+        <v>0.1092811204721574</v>
+      </c>
+      <c r="P13">
+        <v>0.1092811204721574</v>
+      </c>
+      <c r="Q13">
+        <v>687.9327494139307</v>
+      </c>
+      <c r="R13">
+        <v>6191.394744725376</v>
+      </c>
+      <c r="S13">
+        <v>0.07078899142631165</v>
+      </c>
+      <c r="T13">
+        <v>0.07078899142631163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>76.40220066666666</v>
+      </c>
+      <c r="H14">
+        <v>229.206602</v>
+      </c>
+      <c r="I14">
+        <v>0.6477696341368246</v>
+      </c>
+      <c r="J14">
+        <v>0.6477696341368245</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>31.76332533333333</v>
+      </c>
+      <c r="N14">
+        <v>95.289976</v>
+      </c>
+      <c r="O14">
+        <v>0.3855058611490069</v>
+      </c>
+      <c r="P14">
+        <v>0.3855058611490069</v>
+      </c>
+      <c r="Q14">
+        <v>2426.78795595795</v>
+      </c>
+      <c r="R14">
+        <v>21841.09160362155</v>
+      </c>
+      <c r="S14">
+        <v>0.2497189906340937</v>
+      </c>
+      <c r="T14">
+        <v>0.2497189906340937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>76.40220066666666</v>
+      </c>
+      <c r="H15">
+        <v>229.206602</v>
+      </c>
+      <c r="I15">
+        <v>0.6477696341368246</v>
+      </c>
+      <c r="J15">
+        <v>0.6477696341368245</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>30.12843966666667</v>
+      </c>
+      <c r="N15">
+        <v>90.385319</v>
+      </c>
+      <c r="O15">
+        <v>0.3656635429976674</v>
+      </c>
+      <c r="P15">
+        <v>0.3656635429976673</v>
+      </c>
+      <c r="Q15">
+        <v>2301.879093186226</v>
+      </c>
+      <c r="R15">
+        <v>20716.91183867603</v>
+      </c>
+      <c r="S15">
+        <v>0.2368657394647741</v>
+      </c>
+      <c r="T15">
+        <v>0.236865739464774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>76.40220066666666</v>
+      </c>
+      <c r="H16">
+        <v>229.206602</v>
+      </c>
+      <c r="I16">
+        <v>0.6477696341368246</v>
+      </c>
+      <c r="J16">
+        <v>0.6477696341368245</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.382313</v>
+      </c>
+      <c r="N16">
+        <v>7.146939</v>
+      </c>
+      <c r="O16">
+        <v>0.0289137114881257</v>
+      </c>
+      <c r="P16">
+        <v>0.02891371148812569</v>
+      </c>
+      <c r="Q16">
+        <v>182.0139558768086</v>
+      </c>
+      <c r="R16">
+        <v>1638.125602891278</v>
+      </c>
+      <c r="S16">
+        <v>0.01872942431220089</v>
+      </c>
+      <c r="T16">
+        <v>0.01872942431220088</v>
       </c>
     </row>
   </sheetData>
